--- a/Output_testing/R1_201907/Country/HKD/MN/FINLAND_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/FINLAND_201907_HKD_MN.xlsx
@@ -810,136 +810,433 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>1118.928767</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>39.94970222229345</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>874.728199</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>33.18035920793317</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>1050.814785</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>34.48048165804084</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>484.44289</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>35.28681207094386</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>-2.050244932168666</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>122.754664</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>4.382774326506959</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>145.072449</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>5.50291619099222</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>249.669373</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>8.192423973460802</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>160.069423</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>11.65945411585134</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>10.71297831151428</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>200.814383</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>7.169781526229711</v>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>252.905193</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>9.593248690147309</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>224.191031</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>7.356400806915526</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>114.618025</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>8.348775039546448</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>8.492819832443011</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>287.924253</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>10.27991102665634</v>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>259.350438</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>9.837730969931609</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>394.972446</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>12.96026699865526</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>98.192975</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>7.152374670029503</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>-59.14782702438435</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>BABY CARRIAGES, TOYS, GAMES AND SPORTING GOODS</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>93.697759</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>3.345340366020116</v>
+      </c>
+      <c r="E22" s="8" t="n">
+        <v>95.162891</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>3.609737184939422</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>81.76957</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>2.683112379857585</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>53.630505</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>3.906445094497754</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>50.48163490373363</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>83.76757000000001</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>2.99079760578282</v>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>85.888144</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>3.257925688094445</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>104.656808</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>3.434113413843051</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>50.064092</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>3.646667630742695</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>-10.96521380802792</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>66.60135</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>2.377903025262683</v>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>118.810562</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>4.506745214528536</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>130.60341</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>4.285501638599982</v>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v>41.471443</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>3.020779220130283</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>-39.02288895529596</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="n">
+        <v>73.549299</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>2.625969302394766</v>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>44.500501</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>1.688001609872633</v>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>48.548324</v>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>1.593020596118301</v>
+      </c>
+      <c r="I25" s="8" t="n">
+        <v>39.390998</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>2.869239640843785</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>21.76803699379366</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>PARTS AND ACCESSORIES (OTHER THAN COVERS, CARRYING CASES AND THE LIKE) SUITABLE FOR USE SOLELY WITH MACHINES FALLING WITHIN GROUPS 751 AND 752</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>116.759085</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>4.168711016344306</v>
+      </c>
+      <c r="E26" s="8" t="n">
+        <v>104.792618</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>3.97501385179389</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>69.601274</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>2.28383297017778</v>
+      </c>
+      <c r="I26" s="8" t="n">
+        <v>34.14537</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>2.487148184346032</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>-15.01153983681696</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>813</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>LIGHTING FIXTURES AND FITTINGS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="n">
+        <v>82.24320899999999</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>2.93637254332549</v>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>84.033878</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>3.187589311586413</v>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>70.861986</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>2.325200828350875</v>
+      </c>
+      <c r="I27" s="8" t="n">
+        <v>26.886823</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>1.95843574128156</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>-36.87796554843494</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>553.803484</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>19.77273703918335</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>571.038217</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>21.66073208018036</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>621.875106</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>20.40564473598</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>269.959817</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>19.66386859178673</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>-33.47163148696269</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -971,136 +1268,517 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>6.925266269371838</v>
+      </c>
+      <c r="E31" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>8.727941990950997</v>
+      </c>
+      <c r="G31" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H31" s="9" t="n">
+        <v>12.38321511887805</v>
+      </c>
+      <c r="I31" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>34.79139418064639</v>
+      </c>
+      <c r="K31" s="9" t="n">
+        <v>104.6815059327326</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D32" s="9" t="n">
+        <v>1.296538253332356</v>
+      </c>
+      <c r="E32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F32" s="9" t="n">
+        <v>5.4036008554801</v>
+      </c>
+      <c r="G32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H32" s="9" t="n">
+        <v>8.050443979562797</v>
+      </c>
+      <c r="I32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J32" s="9" t="n">
+        <v>29.52393138091176</v>
+      </c>
+      <c r="K32" s="9" t="n">
+        <v>65.62737602152311</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>BABY CARRIAGES, TOYS, GAMES AND SPORTING GOODS</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="n">
+        <v>0.5429079999999999</v>
+      </c>
+      <c r="D33" s="9" t="n">
+        <v>9.16704855104007</v>
+      </c>
+      <c r="E33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F33" s="9" t="n">
+        <v>14.39974097016897</v>
+      </c>
+      <c r="G33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H33" s="9" t="n">
+        <v>8.335039645518377</v>
+      </c>
+      <c r="I33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J33" s="9" t="n">
+        <v>13.61994123779736</v>
+      </c>
+      <c r="K33" s="9" t="n">
+        <v>1.647391688770994</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>658</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>MADE-UP ARTICLES, WHOLLY OR CHIEFLY OF TEXTILE MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D34" s="9" t="n">
+        <v>2.077861861756394</v>
+      </c>
+      <c r="E34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H34" s="9" t="n">
+        <v>2.798776410701485</v>
+      </c>
+      <c r="I34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J34" s="9" t="n">
+        <v>5.962183679272107</v>
+      </c>
+      <c r="K34" s="9" t="n">
+        <v>-22.65120682659322</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D35" s="9" t="n">
+        <v>1.369312976222759</v>
+      </c>
+      <c r="E35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F35" s="9" t="n">
+        <v>5.558814256865569</v>
+      </c>
+      <c r="G35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H35" s="9" t="n">
+        <v>2.050534141672204</v>
+      </c>
+      <c r="I35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J35" s="9" t="n">
+        <v>5.865699933655578</v>
+      </c>
+      <c r="K35" s="9" t="n">
+        <v>37.15621745008089</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES, N.E.S. OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D36" s="9" t="n">
+        <v>4.461681491209793</v>
+      </c>
+      <c r="E36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F36" s="9" t="n">
+        <v>11.37342047187737</v>
+      </c>
+      <c r="G36" s="8" t="n">
+        <v>0.500332</v>
+      </c>
+      <c r="H36" s="9" t="n">
+        <v>17.21793455125595</v>
+      </c>
+      <c r="I36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J36" s="9" t="n">
+        <v>5.157236280921239</v>
+      </c>
+      <c r="K36" s="9" t="n">
+        <v>-83.30879375713181</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>656</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>TULLES, LACE, EMBROIDERY, RIBBONS, TRIMMINGS AND OTHER SMALL WARES</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D37" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F37" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H37" s="9" t="n">
+        <v>1.710912058562699</v>
+      </c>
+      <c r="I37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J37" s="9" t="n">
+        <v>3.946640128897735</v>
+      </c>
+      <c r="K37" s="9" t="n">
+        <v>42.30887529476095</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>873</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>METERS AND COUNTERS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D38" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F38" s="9" t="n">
+        <v>0.06233757381072076</v>
+      </c>
+      <c r="G38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H38" s="9" t="n">
+        <v>0.1418504637326356</v>
+      </c>
+      <c r="I38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J38" s="9" t="n">
+        <v>0.7377499763055634</v>
+      </c>
+      <c r="K38" s="9" t="n">
+        <v>234.2206955775011</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>682</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>COPPER</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D39" s="9" t="n">
+        <v>0.3476301612221831</v>
+      </c>
+      <c r="E39" s="8" t="n">
+        <v>0.511881</v>
+      </c>
+      <c r="F39" s="9" t="n">
+        <v>17.44637486047324</v>
+      </c>
+      <c r="G39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H39" s="9" t="n">
+        <v>11.11316824490507</v>
+      </c>
+      <c r="I39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J39" s="9" t="n">
+        <v>0.3952232015922661</v>
+      </c>
+      <c r="K39" s="9" t="n">
+        <v>-95.71428571428572</v>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="n">
+        <v>3.79703</v>
+      </c>
+      <c r="D40" s="9" t="n">
+        <v>64.11318005952332</v>
+      </c>
+      <c r="E40" s="8" t="n">
+        <v>0.570284</v>
+      </c>
+      <c r="F40" s="9" t="n">
+        <v>19.43691686335324</v>
+      </c>
+      <c r="G40" s="8" t="n">
+        <v>0.639805</v>
+      </c>
+      <c r="H40" s="9" t="n">
+        <v>22.01762153043642</v>
+      </c>
+      <c r="I40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K40" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="n">
+        <v>0.604644</v>
+      </c>
+      <c r="D41" s="9" t="n">
+        <v>10.20946625228413</v>
+      </c>
+      <c r="E41" s="8" t="n">
+        <v>0.515336</v>
+      </c>
+      <c r="F41" s="9" t="n">
+        <v>17.56413118497627</v>
+      </c>
+      <c r="G41" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H41" s="9" t="n">
+        <v>14.18050385477431</v>
+      </c>
+      <c r="I41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K41" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1132,136 +1810,433 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>1118.928767</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>40.0343548905271</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>874.728199</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>33.21732810230382</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>1050.814785</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>34.51339045463887</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>484.44289</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>35.31395206726445</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>-2.050244932168666</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>122.754664</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>4.392061342939279</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>145.072449</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>5.509047430443863</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>249.539042</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>8.195962326722046</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>160.069423</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>11.66842170241507</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>10.71297831151428</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v>200.727343</v>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>7.181859938626962</v>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>252.878609</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>9.602927783521931</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>224.178231</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>7.363001480734995</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>114.618025</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>8.355196297533684</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>8.50596637843708</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="n">
+        <v>287.818056</v>
+      </c>
+      <c r="D47" s="9" t="n">
+        <v>10.29789432324569</v>
+      </c>
+      <c r="E47" s="8" t="n">
+        <v>259.350438</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>9.848691973542065</v>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>394.972446</v>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>12.97263651236289</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>98.192975</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>7.157875745667557</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>-59.14782702438435</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>BABY CARRIAGES, TOYS, GAMES AND SPORTING GOODS</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="n">
+        <v>93.15485099999999</v>
+      </c>
+      <c r="D48" s="9" t="n">
+        <v>3.333004275783512</v>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v>94.740399</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>3.59771517795344</v>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>81.52736400000001</v>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>2.677718078043095</v>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>53.486801</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>3.898974194347887</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>50.67612383743347</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="n">
+        <v>83.76757000000001</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>2.997135049703366</v>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>85.888144</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>3.261555603909275</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>104.656808</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>3.437390993923037</v>
+      </c>
+      <c r="I49" s="8" t="n">
+        <v>50.064092</v>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>3.649472376773075</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>-10.96521380802792</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="n">
+        <v>66.60135</v>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>2.382941757085246</v>
+      </c>
+      <c r="E50" s="8" t="n">
+        <v>118.810562</v>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>4.511766540149131</v>
+      </c>
+      <c r="G50" s="8" t="n">
+        <v>130.60341</v>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>4.289591799031726</v>
+      </c>
+      <c r="I50" s="8" t="n">
+        <v>41.471443</v>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>3.023102579258186</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>-39.02288895529596</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="n">
+        <v>73.549299</v>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>2.631533681996658</v>
+      </c>
+      <c r="E51" s="8" t="n">
+        <v>44.500501</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>1.689882347595267</v>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>48.548324</v>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>1.594541003846186</v>
+      </c>
+      <c r="I51" s="8" t="n">
+        <v>39.390998</v>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>2.871446446976876</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>21.76803699379366</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>PARTS AND ACCESSORIES (OTHER THAN COVERS, CARRYING CASES AND THE LIKE) SUITABLE FOR USE SOLELY WITH MACHINES FALLING WITHIN GROUPS 751 AND 752</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="n">
+        <v>116.736563</v>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>4.176738617930605</v>
+      </c>
+      <c r="E52" s="8" t="n">
+        <v>104.791955</v>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>3.979417555871956</v>
+      </c>
+      <c r="G52" s="8" t="n">
+        <v>69.601274</v>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>2.286012701755338</v>
+      </c>
+      <c r="I52" s="8" t="n">
+        <v>34.14537</v>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>2.489061114095429</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>-15.01153983681696</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>813</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>LIGHTING FIXTURES AND FITTINGS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="n">
+        <v>82.24320899999999</v>
+      </c>
+      <c r="D53" s="9" t="n">
+        <v>2.942594661561501</v>
+      </c>
+      <c r="E53" s="8" t="n">
+        <v>84.033878</v>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>3.191140860013558</v>
+      </c>
+      <c r="G53" s="8" t="n">
+        <v>70.861986</v>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>2.327420042162</v>
+      </c>
+      <c r="I53" s="8" t="n">
+        <v>26.886823</v>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>1.959942024668838</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>-36.87796554843494</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>548.639765</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>19.62988146060007</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>568.553931</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>21.59052662469569</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>619.354566</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>20.34233460677982</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>269.048421</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>19.61255545099895</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>-33.40000294967561</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1293,136 +2268,441 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>675</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>FLAT-ROLLED PRODUCTS OF ALLOY STEEL</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="n">
+        <v>114.108317</v>
+      </c>
+      <c r="D57" s="9" t="n">
+        <v>11.68240429314286</v>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>139.845227</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>11.13005857237041</v>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>104.565478</v>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>11.64000845855672</v>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>74.851821</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>13.7522533786687</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>23.20635377074283</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>874</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>MEASURING, CHECKING, ANALYSING AND CONTROLLING INSTRUMENTS AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="n">
+        <v>91.350435</v>
+      </c>
+      <c r="D58" s="9" t="n">
+        <v>9.352453371338983</v>
+      </c>
+      <c r="E58" s="8" t="n">
+        <v>127.263144</v>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>10.12867065405107</v>
+      </c>
+      <c r="G58" s="8" t="n">
+        <v>116.736322</v>
+      </c>
+      <c r="H58" s="9" t="n">
+        <v>12.99484114155535</v>
+      </c>
+      <c r="I58" s="8" t="n">
+        <v>73.47424100000001</v>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>13.49915560554456</v>
+      </c>
+      <c r="K58" s="9" t="n">
+        <v>10.70144732394058</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>641</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>PAPER AND PAPERBOARD</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="n">
+        <v>48.315441</v>
+      </c>
+      <c r="D59" s="9" t="n">
+        <v>4.946532647252087</v>
+      </c>
+      <c r="E59" s="8" t="n">
+        <v>79.431714</v>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>6.321843428548152</v>
+      </c>
+      <c r="G59" s="8" t="n">
+        <v>57.52318</v>
+      </c>
+      <c r="H59" s="9" t="n">
+        <v>6.403359068115012</v>
+      </c>
+      <c r="I59" s="8" t="n">
+        <v>40.927232</v>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>7.519411779595283</v>
+      </c>
+      <c r="K59" s="9" t="n">
+        <v>23.7592230745612</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>792</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>AIRCRAFT AND ASSOCIATED EQUIPMENT; SPACECRAFT (INCLUDING SATELLITES) AND SPACECRAFT LAUNCH VEHICLES; AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D60" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E60" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F60" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G60" s="8" t="n">
+        <v>49.02353</v>
+      </c>
+      <c r="H60" s="9" t="n">
+        <v>5.457195957812282</v>
+      </c>
+      <c r="I60" s="8" t="n">
+        <v>36.545546</v>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>6.714380515255498</v>
+      </c>
+      <c r="K60" s="9" t="n">
+        <v>61.77882064669746</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>212</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>FURSKINS, RAW, OTHER THAN HIDES AND SKINS OF GROUP 211</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="n">
+        <v>63.592966</v>
+      </c>
+      <c r="D61" s="9" t="n">
+        <v>6.51064496036768</v>
+      </c>
+      <c r="E61" s="8" t="n">
+        <v>288.071385</v>
+      </c>
+      <c r="F61" s="9" t="n">
+        <v>22.92714207595992</v>
+      </c>
+      <c r="G61" s="8" t="n">
+        <v>98.41838</v>
+      </c>
+      <c r="H61" s="9" t="n">
+        <v>10.95572647482613</v>
+      </c>
+      <c r="I61" s="8" t="n">
+        <v>35.32612</v>
+      </c>
+      <c r="J61" s="9" t="n">
+        <v>6.490339802491323</v>
+      </c>
+      <c r="K61" s="9" t="n">
+        <v>-61.29944891724276</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="n">
+        <v>75.039331</v>
+      </c>
+      <c r="D62" s="9" t="n">
+        <v>7.682523287316277</v>
+      </c>
+      <c r="E62" s="8" t="n">
+        <v>32.005477</v>
+      </c>
+      <c r="F62" s="9" t="n">
+        <v>2.547264867657256</v>
+      </c>
+      <c r="G62" s="8" t="n">
+        <v>20.678827</v>
+      </c>
+      <c r="H62" s="9" t="n">
+        <v>2.301923405285166</v>
+      </c>
+      <c r="I62" s="8" t="n">
+        <v>34.157596</v>
+      </c>
+      <c r="J62" s="9" t="n">
+        <v>6.275651129425433</v>
+      </c>
+      <c r="K62" s="9" t="n">
+        <v>129.1732904153334</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="n">
+        <v>71.274272</v>
+      </c>
+      <c r="D63" s="9" t="n">
+        <v>7.297056718516247</v>
+      </c>
+      <c r="E63" s="8" t="n">
+        <v>43.363675</v>
+      </c>
+      <c r="F63" s="9" t="n">
+        <v>3.451245730848107</v>
+      </c>
+      <c r="G63" s="8" t="n">
+        <v>36.785585</v>
+      </c>
+      <c r="H63" s="9" t="n">
+        <v>4.09489373302494</v>
+      </c>
+      <c r="I63" s="8" t="n">
+        <v>29.907514</v>
+      </c>
+      <c r="J63" s="9" t="n">
+        <v>5.494798990315564</v>
+      </c>
+      <c r="K63" s="9" t="n">
+        <v>22.82127198138348</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="n">
+        <v>138.104824</v>
+      </c>
+      <c r="D64" s="9" t="n">
+        <v>14.13916558598738</v>
+      </c>
+      <c r="E64" s="8" t="n">
+        <v>64.242249</v>
+      </c>
+      <c r="F64" s="9" t="n">
+        <v>5.112938135463175</v>
+      </c>
+      <c r="G64" s="8" t="n">
+        <v>70.520239</v>
+      </c>
+      <c r="H64" s="9" t="n">
+        <v>7.850164262238074</v>
+      </c>
+      <c r="I64" s="8" t="n">
+        <v>22.88845</v>
+      </c>
+      <c r="J64" s="9" t="n">
+        <v>4.205211839067878</v>
+      </c>
+      <c r="K64" s="9" t="n">
+        <v>-51.50597389823497</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>723</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>CIVIL ENGINEERING AND CONTRACTORS' PLANT AND EQUIPMENT</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="n">
+        <v>12.625915</v>
+      </c>
+      <c r="D65" s="9" t="n">
+        <v>1.29264060218202</v>
+      </c>
+      <c r="E65" s="8" t="n">
+        <v>18.761388</v>
+      </c>
+      <c r="F65" s="9" t="n">
+        <v>1.493188947656879</v>
+      </c>
+      <c r="G65" s="8" t="n">
+        <v>2.532352</v>
+      </c>
+      <c r="H65" s="9" t="n">
+        <v>0.2818960833330005</v>
+      </c>
+      <c r="I65" s="8" t="n">
+        <v>15.467891</v>
+      </c>
+      <c r="J65" s="9" t="n">
+        <v>2.841859468798082</v>
+      </c>
+      <c r="K65" s="9" t="n">
+        <v>677.9361411922805</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="n">
+        <v>16.950277</v>
+      </c>
+      <c r="D66" s="9" t="n">
+        <v>1.735368586627744</v>
+      </c>
+      <c r="E66" s="8" t="n">
+        <v>28.624832</v>
+      </c>
+      <c r="F66" s="9" t="n">
+        <v>2.278204724028678</v>
+      </c>
+      <c r="G66" s="8" t="n">
+        <v>32.04585</v>
+      </c>
+      <c r="H66" s="9" t="n">
+        <v>3.567276430005321</v>
+      </c>
+      <c r="I66" s="8" t="n">
+        <v>15.111761</v>
+      </c>
+      <c r="J66" s="9" t="n">
+        <v>2.776428996562206</v>
+      </c>
+      <c r="K66" s="9" t="n">
+        <v>-18.24141713367144</v>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="n">
+        <v>344.97306</v>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>35.31832615814173</v>
+      </c>
+      <c r="E67" s="8" t="n">
+        <v>434.726053</v>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>34.5991531968796</v>
+      </c>
+      <c r="G67" s="8" t="n">
+        <v>309.498453</v>
+      </c>
+      <c r="H67" s="9" t="n">
+        <v>34.45271498524799</v>
+      </c>
+      <c r="I67" s="8" t="n">
+        <v>165.629509</v>
+      </c>
+      <c r="J67" s="9" t="n">
+        <v>30.43050849427548</v>
+      </c>
+      <c r="K67" s="9" t="n">
+        <v>-12.19810069239449</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
